--- a/StructureDefinition-mspatient.xlsx
+++ b/StructureDefinition-mspatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T13:36:13-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,10 +259,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}rac-1:Shall use either NMDP Race extension or us-core-race {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-race' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')}eth-1:Shall use either NMDP ethnicity extension or us-core-ethnicity {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-ethnicity' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -276,70 +272,381 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Patient.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Patient.implicitRules</t>
+    <t>Patient.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Patient.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Patient.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Patient.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>slicing on meta.security</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>TransplantCenter</t>
+  </si>
+  <si>
+    <t>Patient.meta.security.id</t>
+  </si>
+  <si>
+    <t>Patient.meta.security.extension</t>
+  </si>
+  <si>
+    <t>Patient.meta.security.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.nmdp.org/codesystem/transplant-center</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Patient.meta.security.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Patient.meta.security.code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Patient.meta.security.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Patient.meta.security.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Patient.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
     <t>Language of the resource content</t>
   </si>
   <si>
@@ -416,28 +723,13 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>race</t>
@@ -504,10 +796,6 @@
     <t>Patient.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -515,9 +803,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -553,10 +838,6 @@
   </si>
   <si>
     <t>Patient.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Whether this patient's record is in active use</t>
@@ -580,9 +861,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -617,28 +895,7 @@
     <t>Patient.name.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.name.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.name.use</t>
@@ -1334,9 +1591,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -2073,7 +2327,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2083,14 +2337,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="96.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2103,25 +2357,25 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="78.75390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.28125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="153.5546875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="39.8515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.85546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="35.59765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="35.6015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2340,13 +2594,13 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>77</v>
@@ -2360,7 +2614,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2371,28 +2625,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2442,13 +2696,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2474,7 +2728,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2485,25 +2739,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2554,19 +2808,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2586,7 +2840,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2597,29 +2851,27 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>77</v>
@@ -2668,22 +2920,22 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -2700,18 +2952,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2723,16 +2975,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2758,46 +3010,46 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -2818,35 +3070,35 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2896,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -2928,18 +3180,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -2948,19 +3200,19 @@
         <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3010,22 +3262,22 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
@@ -3042,7 +3294,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3053,7 +3305,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -3062,18 +3314,20 @@
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -3110,29 +3364,31 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -3150,13 +3406,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3165,27 +3419,29 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3234,7 +3490,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3243,10 +3499,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3264,42 +3520,42 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -3324,31 +3580,31 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3357,10 +3613,10 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
@@ -3380,40 +3636,42 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>77</v>
@@ -3438,13 +3696,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3462,7 +3720,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3471,10 +3729,10 @@
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>77</v>
@@ -3492,13 +3750,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3507,10 +3763,10 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3519,13 +3775,13 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3576,22 +3832,22 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
@@ -3608,11 +3864,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3625,26 +3881,24 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3680,19 +3934,19 @@
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3704,10 +3958,10 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3722,9 +3976,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3732,32 +3986,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3767,7 +4023,7 @@
         <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>77</v>
@@ -3806,31 +4062,31 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3838,7 +4094,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3849,38 +4105,34 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P16" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3924,39 +4176,39 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3964,34 +4216,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -4040,31 +4290,31 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4072,7 +4322,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4083,28 +4333,30 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4152,22 +4404,22 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -4176,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4184,18 +4436,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -4204,21 +4456,23 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4254,34 +4508,34 @@
         <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
@@ -4290,7 +4544,7 @@
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4298,7 +4552,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4309,32 +4563,30 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4358,13 +4610,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4382,22 +4634,22 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -4406,7 +4658,7 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4414,7 +4666,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4425,32 +4677,30 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4498,22 +4748,22 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -4522,47 +4772,47 @@
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4588,13 +4838,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4612,22 +4862,22 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -4636,47 +4886,47 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4726,22 +4976,22 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4750,7 +5000,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4758,11 +5008,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4778,18 +5028,20 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4838,7 +5090,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4850,10 +5102,10 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4862,7 +5114,7 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4870,7 +5122,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4890,16 +5142,16 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4938,19 +5190,17 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4962,10 +5212,10 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
@@ -4974,17 +5224,19 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4993,30 +5245,28 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5064,22 +5314,22 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -5088,7 +5338,7 @@
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5096,9 +5346,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5107,32 +5359,28 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5180,7 +5428,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5189,32 +5437,34 @@
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5223,11 +5473,11 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5235,13 +5485,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5292,22 +5542,22 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -5322,23 +5572,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C29" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5347,17 +5599,15 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5394,19 +5644,19 @@
         <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5415,13 +5665,13 @@
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5436,41 +5686,45 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5479,7 +5733,7 @@
         <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5494,13 +5748,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5518,22 +5772,22 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5542,7 +5796,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5804,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5558,34 +5812,32 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5634,31 +5886,31 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5666,7 +5918,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5677,36 +5929,38 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5726,13 +5980,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5750,39 +6004,39 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5790,33 +6044,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5864,31 +6120,31 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5896,7 +6152,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5907,7 +6163,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5916,16 +6172,16 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5976,22 +6232,22 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -6000,51 +6256,49 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6068,63 +6322,63 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>307</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6132,34 +6386,34 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6184,13 +6438,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -6208,39 +6462,39 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6251,31 +6505,31 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>321</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6324,31 +6578,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6356,43 +6610,41 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6440,70 +6692,72 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6552,22 +6806,22 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6576,7 +6830,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6584,11 +6838,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6604,20 +6858,18 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6654,19 +6906,19 @@
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6678,10 +6930,10 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6690,7 +6942,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6950,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6709,32 +6961,28 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6746,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>77</v>
@@ -6758,13 +7006,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6782,22 +7030,22 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6806,7 +7054,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6814,7 +7062,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6825,30 +7073,30 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6860,7 +7108,7 @@
         <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>77</v>
@@ -6872,13 +7120,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6896,22 +7144,22 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6920,15 +7168,15 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6939,31 +7187,31 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6976,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>77</v>
@@ -7012,39 +7260,39 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7052,28 +7300,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>98</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7088,7 +7336,7 @@
         <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -7124,22 +7372,22 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -7148,46 +7396,48 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7200,7 +7450,7 @@
         <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>77</v>
@@ -7224,34 +7474,34 @@
         <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7260,48 +7510,46 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7311,10 +7559,10 @@
         <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>77</v>
@@ -7326,13 +7574,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7350,22 +7598,22 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7374,7 +7622,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7382,39 +7630,43 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7462,22 +7714,22 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7486,47 +7738,51 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="I48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7538,7 +7794,7 @@
         <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>77</v>
@@ -7550,13 +7806,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7574,22 +7830,22 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>402</v>
+        <v>290</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7598,15 +7854,15 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7614,31 +7870,31 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>375</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7688,22 +7944,22 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>409</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7712,7 +7968,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7720,7 +7976,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7731,30 +7987,28 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>414</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7766,7 +8020,7 @@
         <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>77</v>
@@ -7802,22 +8056,22 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7826,15 +8080,15 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>417</v>
+        <v>226</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7842,32 +8096,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>419</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7892,13 +8148,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>423</v>
+        <v>286</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7916,39 +8172,39 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7956,34 +8212,34 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8032,39 +8288,39 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>177</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8075,31 +8331,31 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8148,39 +8404,39 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8188,34 +8444,34 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8264,7 +8520,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8276,19 +8532,19 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>451</v>
+        <v>117</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>177</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8296,7 +8552,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8307,7 +8563,7 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8319,13 +8575,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8376,13 +8632,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8391,7 +8647,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8408,11 +8664,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8431,16 +8687,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8478,19 +8734,19 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8502,10 +8758,10 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8522,42 +8778,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>157</v>
+        <v>426</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8570,7 +8826,7 @@
         <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>77</v>
@@ -8582,13 +8838,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8606,22 +8862,22 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8630,7 +8886,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8638,7 +8894,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8649,7 +8905,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8658,21 +8914,21 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>419</v>
+        <v>167</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8684,7 +8940,7 @@
         <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>77</v>
@@ -8696,13 +8952,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>423</v>
+        <v>286</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8720,31 +8976,31 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8752,7 +9008,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8763,29 +9019,31 @@
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>471</v>
+        <v>296</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8798,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>77</v>
@@ -8834,39 +9092,39 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8874,35 +9132,31 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8914,7 +9168,7 @@
         <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>77</v>
@@ -8950,7 +9204,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8962,61 +9216,59 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9028,7 +9280,7 @@
         <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>77</v>
@@ -9064,31 +9316,31 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9096,41 +9348,41 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>301</v>
+        <v>466</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9142,7 +9394,7 @@
         <v>77</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>77</v>
@@ -9154,13 +9406,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9178,73 +9430,71 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>307</v>
+        <v>471</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>488</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9292,68 +9542,68 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9368,7 +9618,7 @@
         <v>77</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>77</v>
@@ -9404,31 +9654,31 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9436,7 +9686,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9444,35 +9694,33 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>446</v>
+        <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9520,31 +9768,31 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9552,7 +9800,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9563,28 +9811,30 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>190</v>
+        <v>497</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9596,7 +9846,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>77</v>
+        <v>499</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -9632,22 +9882,22 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>191</v>
+        <v>500</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9906,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9664,18 +9914,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9687,18 +9937,18 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>129</v>
+        <v>503</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>193</v>
+        <v>504</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9722,13 +9972,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>508</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9746,31 +9996,31 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>196</v>
+        <v>502</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>177</v>
+        <v>509</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>511</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9778,42 +10028,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>129</v>
+        <v>513</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>157</v>
+        <v>516</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>158</v>
+        <v>517</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9862,31 +10112,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>127</v>
+        <v>518</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9894,7 +10144,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9902,10 +10152,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9917,19 +10167,19 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>419</v>
+        <v>521</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9954,13 +10204,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9978,31 +10228,31 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>515</v>
+        <v>100</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10010,7 +10260,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10021,7 +10271,7 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -10033,19 +10283,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>170</v>
+        <v>529</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10094,53 +10344,53 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>534</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>523</v>
+        <v>100</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>526</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10149,17 +10399,15 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>527</v>
+        <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>528</v>
+        <v>97</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10208,75 +10456,73 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>525</v>
+        <v>99</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>531</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>534</v>
+        <v>103</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>535</v>
+        <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>536</v>
+        <v>105</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10324,25 +10570,25 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>533</v>
+        <v>110</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>539</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10356,11 +10602,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10373,25 +10619,25 @@
         <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>446</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>543</v>
+        <v>106</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>544</v>
+        <v>251</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10440,7 +10686,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10452,13 +10698,13 @@
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>545</v>
+        <v>226</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10472,7 +10718,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10483,7 +10729,7 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10495,16 +10741,18 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>86</v>
+        <v>503</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>544</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>190</v>
+        <v>545</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10528,13 +10776,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>547</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>548</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10552,31 +10800,31 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>191</v>
+        <v>543</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>177</v>
+        <v>549</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10584,18 +10832,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10607,18 +10855,18 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>193</v>
+        <v>552</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10666,31 +10914,31 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>196</v>
+        <v>551</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>77</v>
+        <v>555</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10698,11 +10946,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10715,25 +10963,25 @@
         <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>457</v>
+        <v>557</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>458</v>
+        <v>558</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>157</v>
+        <v>559</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>158</v>
+        <v>341</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10782,7 +11030,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>459</v>
+        <v>556</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10794,19 +11042,19 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>127</v>
+        <v>342</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>77</v>
+        <v>560</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10814,7 +11062,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10822,10 +11070,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10834,21 +11082,21 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>550</v>
+        <v>413</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10896,31 +11144,31 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10928,7 +11176,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10936,10 +11184,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10948,19 +11196,21 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>556</v>
+        <v>385</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10984,13 +11234,13 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>557</v>
+        <v>389</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>558</v>
+        <v>390</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -11008,38 +11258,1868 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AG78" t="s" s="2">
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
+      <c r="I84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN78" t="s" s="2">
+      <c r="K90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN78">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11049,7 +13129,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-mspatient.xlsx
+++ b/StructureDefinition-mspatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="702">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -256,7 +256,7 @@
     <t>Information about an individual or animal receiving health care services</t>
   </si>
   <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+    <t>The US Core Patient Profile is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements from the 2015 Edition Common Clinical Data Set.</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -767,6 +767,22 @@
     <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The ethnicity codes used to represent these concepts are based upon the [CDC ethnicity and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 43 reference ethnicity.  The ethnicity concepts are grouped by and pre-mapped to the 2 OMB ethnicity categories: - Hispanic or Latino - Not Hispanic or Latino.</t>
   </si>
   <si>
+    <t>birthsex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex}
+</t>
+  </si>
+  <si>
+    <t>A code classifying the person's sex assigned at birth  as specified by the [Office of the National Coordinator for Health IT (ONC)](https://www.healthit.gov/newsroom/about-onc).</t>
+  </si>
+  <si>
+    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
+  </si>
+  <si>
     <t>nmdprace</t>
   </si>
   <si>
@@ -835,6 +851,171 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique within the system.</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -883,6 +1064,10 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-8:Either Patient.name.given and/or Patient.name.family SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -911,9 +1096,6 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -974,6 +1156,10 @@
     <t>HumanName.family</t>
   </si>
   <si>
+    <t xml:space="preserve">us-core-8
+</t>
+  </si>
+  <si>
     <t>./part[partType = FAM]</t>
   </si>
   <si>
@@ -1044,10 +1230,6 @@
     <t>Patient.name.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when name was/is in use</t>
   </si>
   <si>
@@ -1115,7 +1297,7 @@
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1170,10 +1352,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -1228,13 +1407,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>.patient.administrativeGenderCode</t>
@@ -1498,6 +1671,12 @@
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
+    <t>Two Letter USPS alphabetic codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+  </si>
+  <si>
     <t>Address.state</t>
   </si>
   <si>
@@ -1510,11 +1689,11 @@
     <t>Patient.address.postalCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
+    <t>Zip
+Zip Code</t>
+  </si>
+  <si>
+    <t>US Zip Codes</t>
   </si>
   <si>
     <t>A postal code designating a region defined by the postal service.</t>
@@ -1580,10 +1759,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -1788,14 +1963,16 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+  </si>
+  <si>
     <t>NK1-15</t>
   </si>
   <si>
     <t>Patient.contact.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that is associated with the contact</t>
@@ -1872,6 +2049,9 @@
   </si>
   <si>
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/simple-language</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -2327,7 +2507,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5230,7 +5410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>227</v>
       </c>
@@ -5248,7 +5428,7 @@
         <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -5344,7 +5524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>227</v>
       </c>
@@ -5362,7 +5542,7 @@
         <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -5458,7 +5638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>227</v>
       </c>
@@ -5476,7 +5656,7 @@
         <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5488,12 +5668,14 @@
         <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5557,7 +5739,7 @@
         <v>111</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -5577,7 +5759,7 @@
         <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>77</v>
@@ -5599,13 +5781,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5665,7 +5847,7 @@
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>111</v>
@@ -5686,45 +5868,43 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="C30" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5772,7 +5952,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5787,7 +5967,7 @@
         <v>111</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5802,13 +5982,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>253</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5818,26 +5998,28 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5886,7 +6068,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5898,27 +6080,27 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5926,41 +6108,37 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P32" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>77</v>
       </c>
@@ -6004,13 +6182,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -6019,24 +6197,24 @@
         <v>117</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6044,35 +6222,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -6120,31 +6294,31 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6152,18 +6326,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -6175,15 +6349,17 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6220,31 +6396,31 @@
         <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>100</v>
@@ -6264,41 +6440,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6322,46 +6500,46 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -6370,7 +6548,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6378,7 +6556,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6395,25 +6573,25 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6438,31 +6616,31 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6477,7 +6655,7 @@
         <v>117</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -6486,15 +6664,15 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6502,13 +6680,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6517,19 +6695,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6542,7 +6720,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -6578,7 +6756,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6593,7 +6771,7 @@
         <v>117</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6602,7 +6780,7 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6610,11 +6788,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6636,13 +6814,13 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6656,7 +6834,7 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>77</v>
@@ -6692,7 +6870,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6707,38 +6885,38 @@
         <v>117</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6747,17 +6925,15 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6806,13 +6982,13 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
@@ -6821,7 +6997,7 @@
         <v>117</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6830,7 +7006,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6838,7 +7014,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6849,7 +7025,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6861,15 +7037,17 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6918,13 +7096,13 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
@@ -6933,16 +7111,16 @@
         <v>117</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6950,7 +7128,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6961,32 +7139,38 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="Q41" t="s" s="2">
         <v>77</v>
       </c>
@@ -7030,13 +7214,13 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
@@ -7045,24 +7229,24 @@
         <v>117</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7070,13 +7254,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -7085,17 +7269,19 @@
         <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7144,39 +7330,39 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7190,29 +7376,25 @@
         <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>337</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7260,31 +7442,31 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7292,18 +7474,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -7315,15 +7497,17 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7360,31 +7544,31 @@
         <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -7404,41 +7588,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>105</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7462,46 +7648,46 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7510,15 +7696,15 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7526,13 +7712,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7541,16 +7727,20 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7559,7 +7749,7 @@
         <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -7574,13 +7764,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7598,7 +7788,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7607,13 +7797,13 @@
         <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7622,7 +7812,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7630,11 +7820,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7656,17 +7846,15 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7714,7 +7902,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7723,13 +7911,13 @@
         <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7738,51 +7926,49 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7806,13 +7992,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7830,22 +8016,22 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7854,7 +8040,7 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7862,7 +8048,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7873,7 +8059,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7885,17 +8071,15 @@
         <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>375</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M49" t="s" s="2">
         <v>378</v>
       </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7950,7 +8134,7 @@
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7959,7 +8143,7 @@
         <v>117</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7968,7 +8152,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7976,7 +8160,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7987,7 +8171,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7999,13 +8183,13 @@
         <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8056,13 +8240,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -8071,7 +8255,7 @@
         <v>117</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -8080,15 +8264,15 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8096,13 +8280,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -8111,19 +8295,17 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8148,13 +8330,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -8172,7 +8354,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -8187,16 +8369,16 @@
         <v>117</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -8204,7 +8386,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8212,7 +8394,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>83</v>
@@ -8227,19 +8409,19 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8288,13 +8470,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -8303,19 +8485,19 @@
         <v>117</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -8337,26 +8519,22 @@
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>405</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8404,7 +8582,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8416,63 +8594,61 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>413</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>105</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8508,19 +8684,19 @@
         <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8532,27 +8708,27 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>418</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8560,28 +8736,28 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>97</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>98</v>
+        <v>408</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8593,7 +8769,7 @@
         <v>77</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>77</v>
@@ -8608,13 +8784,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8632,7 +8808,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8641,13 +8817,13 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8656,49 +8832,51 @@
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>105</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8734,34 +8912,34 @@
         <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>422</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8770,15 +8948,15 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8792,7 +8970,7 @@
         <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>84</v>
@@ -8804,16 +8982,16 @@
         <v>167</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8826,7 +9004,7 @@
         <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>77</v>
@@ -8838,31 +9016,29 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X57" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="X57" s="2"/>
+      <c r="Y57" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8877,7 +9053,7 @@
         <v>117</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8886,7 +9062,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8894,7 +9070,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8917,7 +9093,7 @@
         <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>167</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>434</v>
@@ -8940,43 +9116,43 @@
         <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8991,7 +9167,7 @@
         <v>117</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -9000,7 +9176,7 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>441</v>
+        <v>100</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -9008,7 +9184,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9031,20 +9207,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -9056,7 +9228,7 @@
         <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>77</v>
@@ -9092,7 +9264,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -9107,7 +9279,7 @@
         <v>117</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -9116,7 +9288,7 @@
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>448</v>
+        <v>226</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -9124,7 +9296,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9135,7 +9307,7 @@
         <v>83</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>84</v>
@@ -9147,16 +9319,20 @@
         <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9168,7 +9344,7 @@
         <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>77</v>
@@ -9180,13 +9356,11 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -9204,13 +9378,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -9219,16 +9393,16 @@
         <v>117</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>454</v>
+        <v>244</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -9236,11 +9410,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9259,16 +9433,20 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9280,7 +9458,7 @@
         <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>77</v>
@@ -9316,7 +9494,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -9331,28 +9509,28 @@
         <v>117</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9365,24 +9543,26 @@
         <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9394,7 +9574,7 @@
         <v>77</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>77</v>
@@ -9430,7 +9610,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9445,16 +9625,16 @@
         <v>117</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9462,11 +9642,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9485,16 +9665,20 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>96</v>
+        <v>469</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9542,13 +9726,13 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
@@ -9557,53 +9741,53 @@
         <v>117</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>482</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>98</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9618,7 +9802,7 @@
         <v>77</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>484</v>
+        <v>77</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>77</v>
@@ -9654,7 +9838,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>485</v>
+        <v>99</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9666,10 +9850,10 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9678,47 +9862,47 @@
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>491</v>
+        <v>106</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9756,34 +9940,34 @@
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>492</v>
+        <v>110</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9792,7 +9976,7 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9800,7 +9984,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9817,23 +10001,25 @@
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9846,7 +10032,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -9858,13 +10044,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9882,7 +10068,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9897,7 +10083,7 @@
         <v>117</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9906,7 +10092,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9914,7 +10100,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9934,21 +10120,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>503</v>
+        <v>167</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9960,7 +10146,7 @@
         <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>77</v>
@@ -9972,13 +10158,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9996,7 +10182,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -10011,16 +10197,16 @@
         <v>117</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>509</v>
+        <v>349</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -10028,7 +10214,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10048,22 +10234,22 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>513</v>
+        <v>96</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>517</v>
+        <v>355</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10076,7 +10262,7 @@
         <v>77</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>77</v>
@@ -10112,7 +10298,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -10127,24 +10313,24 @@
         <v>117</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>518</v>
+        <v>357</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10152,35 +10338,31 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>521</v>
+        <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10192,7 +10374,7 @@
         <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>77</v>
+        <v>508</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>77</v>
@@ -10228,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10243,60 +10425,56 @@
         <v>117</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>529</v>
+        <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10308,7 +10486,7 @@
         <v>77</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>77</v>
@@ -10344,31 +10522,31 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>534</v>
+        <v>117</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10376,11 +10554,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10396,18 +10574,20 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10420,7 +10600,7 @@
         <v>77</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>77</v>
@@ -10456,7 +10636,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>99</v>
+        <v>526</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10468,10 +10648,10 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>527</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -10480,48 +10660,46 @@
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>528</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>102</v>
+        <v>530</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>104</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10546,13 +10724,13 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10570,22 +10748,22 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>110</v>
+        <v>535</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>536</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -10594,13 +10772,13 @@
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>538</v>
       </c>
@@ -10610,22 +10788,22 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>540</v>
@@ -10633,12 +10811,8 @@
       <c r="L73" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10650,7 +10824,7 @@
         <v>77</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>77</v>
@@ -10686,22 +10860,22 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>226</v>
+        <v>544</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
@@ -10710,15 +10884,15 @@
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>77</v>
+        <v>545</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10726,33 +10900,33 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>503</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10776,13 +10950,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>548</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10800,13 +10974,13 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
@@ -10815,24 +10989,24 @@
         <v>117</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10846,26 +11020,26 @@
         <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10878,7 +11052,7 @@
         <v>77</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>77</v>
+        <v>557</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>77</v>
@@ -10914,7 +11088,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10929,16 +11103,16 @@
         <v>117</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10946,7 +11120,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10957,7 +11131,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10969,19 +11143,17 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>341</v>
+        <v>563</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11006,13 +11178,13 @@
         <v>77</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>564</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>565</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>77</v>
@@ -11030,13 +11202,13 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
@@ -11045,16 +11217,16 @@
         <v>117</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>342</v>
+        <v>566</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>100</v>
+        <v>567</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -11062,7 +11234,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11085,17 +11257,19 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>413</v>
+        <v>570</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="N77" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -11144,7 +11318,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -11159,7 +11333,7 @@
         <v>117</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>418</v>
+        <v>575</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>100</v>
@@ -11168,7 +11342,7 @@
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11176,7 +11350,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11187,7 +11361,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -11199,17 +11373,19 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>167</v>
+        <v>578</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>385</v>
+        <v>579</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -11234,13 +11410,13 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -11258,13 +11434,13 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
@@ -11273,7 +11449,7 @@
         <v>117</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>391</v>
+        <v>583</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>100</v>
@@ -11282,7 +11458,7 @@
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -11290,7 +11466,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11301,7 +11477,7 @@
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -11313,17 +11489,19 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11372,22 +11550,22 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>575</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>117</v>
+        <v>591</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>100</v>
@@ -11396,7 +11574,7 @@
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>577</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11404,7 +11582,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11427,13 +11605,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>579</v>
+        <v>97</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>580</v>
+        <v>98</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11484,7 +11662,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>578</v>
+        <v>99</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11496,13 +11674,13 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>581</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11514,13 +11692,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11530,7 +11708,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11539,20 +11717,18 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>529</v>
+        <v>103</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>583</v>
+        <v>104</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>584</v>
+        <v>105</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11600,7 +11776,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>582</v>
+        <v>110</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11612,13 +11788,13 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>587</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11632,39 +11808,43 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>97</v>
+        <v>597</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11712,22 +11892,22 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>99</v>
+        <v>599</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11744,11 +11924,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11767,18 +11947,18 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>104</v>
+        <v>601</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11802,13 +11982,13 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>77</v>
+        <v>604</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>77</v>
+        <v>605</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>77</v>
@@ -11826,7 +12006,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11838,19 +12018,19 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK83" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
+        <v>607</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11858,42 +12038,40 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>539</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>251</v>
+        <v>611</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11942,31 +12120,31 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>612</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11974,7 +12152,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11982,10 +12160,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11997,19 +12175,19 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>503</v>
+        <v>396</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>596</v>
+        <v>400</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -12034,13 +12212,13 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -12058,13 +12236,13 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
@@ -12073,16 +12251,16 @@
         <v>117</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>597</v>
+        <v>401</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>598</v>
+        <v>100</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -12090,7 +12268,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12113,19 +12291,17 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12174,7 +12350,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -12189,28 +12365,28 @@
         <v>117</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>605</v>
+        <v>474</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>606</v>
+        <v>100</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>609</v>
+        <v>77</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12220,7 +12396,7 @@
         <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -12229,18 +12405,18 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>610</v>
+        <v>167</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>611</v>
+        <v>443</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12264,13 +12440,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>626</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>627</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12288,13 +12464,13 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
@@ -12303,7 +12479,7 @@
         <v>117</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>614</v>
+        <v>244</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>100</v>
@@ -12312,15 +12488,15 @@
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12334,28 +12510,26 @@
         <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>617</v>
+        <v>314</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12404,7 +12578,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12413,22 +12587,22 @@
         <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>633</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>622</v>
+        <v>100</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>77</v>
+        <v>635</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12436,7 +12610,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12447,32 +12621,28 @@
         <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>529</v>
+        <v>307</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12520,13 +12690,13 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>77</v>
@@ -12535,7 +12705,7 @@
         <v>117</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>100</v>
@@ -12550,9 +12720,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12563,10 +12733,10 @@
         <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -12575,16 +12745,20 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>96</v>
+        <v>586</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>97</v>
+        <v>641</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12632,25 +12806,25 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>99</v>
+        <v>640</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>645</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>77</v>
+        <v>646</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12664,18 +12838,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -12687,17 +12861,15 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12746,19 +12918,19 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>100</v>
@@ -12778,11 +12950,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>539</v>
+        <v>102</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12795,26 +12967,24 @@
         <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>103</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>540</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>541</v>
+        <v>105</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12862,7 +13032,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>542</v>
+        <v>110</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12877,7 +13047,7 @@
         <v>111</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
@@ -12894,41 +13064,43 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>633</v>
+        <v>103</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12976,39 +13148,39 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>637</v>
+        <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13022,25 +13194,29 @@
         <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>77</v>
       </c>
@@ -13064,13 +13240,11 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="X94" s="2"/>
       <c r="Y94" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13088,7 +13262,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -13103,23 +13277,1053 @@
         <v>117</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13129,7 +14333,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-mspatient.xlsx
+++ b/StructureDefinition-mspatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mspatient.xlsx
+++ b/StructureDefinition-mspatient.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-mspatient.xlsx
+++ b/StructureDefinition-mspatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mspatient.xlsx
+++ b/StructureDefinition-mspatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:53:38-06:00</t>
+    <t>2024-12-02T18:31:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
